--- a/biology/Histoire de la zoologie et de la botanique/Paul-Alphonse_Reverchon/Paul-Alphonse_Reverchon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul-Alphonse_Reverchon/Paul-Alphonse_Reverchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Alphonse Reverchon, né le 24 mai 1833 à Diémoz (Isère) et mort le 6 mars à Quimper), est un médecin et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était le fils de Maximilien Reverchon et de Fleurine Pétel. Il avait épousé Florestine-Marie-Pauline Menereul (décédée à Quimper le 8 septembre 1901). Il eut de ce mariage deux fils.
 Venant d'Alençon, il dirigea l'asile d'aliénés de la Roche-Gandon à Mayenne du 1er janvier 1881 au 12 septembre 1884. Botaniste expérimenté, il fut le compagnon de Charles Chedeau et de Paul Jouannault. Il dirigea ensuite les asiles de Moulins (1884-1888), puis de Pau (1888-1892). Ce fut un administrateur émérite et ses réalisations lui font le plus grand honneur. Il dut prendre prématurément sa retraite pour des raisons de santé et se retira à Quimper.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catalogue raisonné des plantes vasculaires du département de la Mayenne (d'abord publié dans le Bulletin de la Société d'études scientifiques d'Angers, 1890, 1891 ; puis tiré à part à Angers, par Germain et Grassin, 1892.
 Contributeur à La Flore complète de France, de Gaston Bonnier et Georges de Layens (1834-1897), édité par Paul Dupont.
